--- a/Anforderungsanalyse.xlsx
+++ b/Anforderungsanalyse.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,31 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jenny\Documents\GitHub\Systemarchitektur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5754292-F7E2-4191-A58C-A2DEBF0A3B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF76A41-FD8B-48CB-BA85-55110CA6E7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Details der Anforderungen" sheetId="2" r:id="rId1"/>
     <sheet name="Quelle der datei" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="114210" calcOnSave="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -65,12 +54,6 @@
   </si>
   <si>
     <t>Niedrig</t>
-  </si>
-  <si>
-    <t>&lt;Titel eintragen&gt;</t>
-  </si>
-  <si>
-    <t>&lt;genaue Beschreibung&gt;</t>
   </si>
   <si>
     <t>&lt;Details zu den anderen Feldern tragen Sie hier nach&gt;</t>
@@ -110,9 +93,6 @@
     <t>Nicht Funktional</t>
   </si>
   <si>
-    <t>Bestellprozess</t>
-  </si>
-  <si>
     <t>Unterkategorie</t>
   </si>
   <si>
@@ -137,23 +117,176 @@
     <t>Anforderungsliste für das Kinoticketreservierungssystem</t>
   </si>
   <si>
-    <t>A1.1</t>
-  </si>
-  <si>
     <t>Auswahlprozess</t>
   </si>
   <si>
     <t>Zahlunsprozess</t>
+  </si>
+  <si>
+    <t>Startseite</t>
+  </si>
+  <si>
+    <t>Der Kunde soll über die Startseite auf das Programm navigieren.</t>
+  </si>
+  <si>
+    <t>Im Programm soll er in beliebiger Reihenfolge Kino, Film und Datum wählen, um dann eine Vorstellung auswählen.</t>
+  </si>
+  <si>
+    <t>Der Kunde soll auf der Platzauswahlseite beliebig viele freie Sitzplätze auswählen können.</t>
+  </si>
+  <si>
+    <t>Er soll zu jedem Sitzplatz einen Tarif zuordnen können.</t>
+  </si>
+  <si>
+    <t>Beim abschließen der Bestellung soll er einloggen oder als Gast fortfahren.</t>
+  </si>
+  <si>
+    <t>Beim bezahlen soll er zwischen vor Ort, Bankeinzug und Paypal wählen.</t>
+  </si>
+  <si>
+    <t>Der Kunde soll sein Ticket als PDF herunterladen oder im Kino abholen.</t>
+  </si>
+  <si>
+    <t>Der Kunde soll (wenn er eingeloggt ist) alle seine Tickets sehen können</t>
+  </si>
+  <si>
+    <t>Der Kunde soll Tickets per Email erhalten und seinen Benutzeraccount (über Email verfizieren können)</t>
+  </si>
+  <si>
+    <t>Der Kunde soll in der Lage sein Gutscheine einzulösen, Studenten/- Seniorentarife auszuwählen</t>
+  </si>
+  <si>
+    <t>Der Kunde soll gesehene Filme bewerten und kommentieren dürfen</t>
+  </si>
+  <si>
+    <t>Der Kunde soll Filmtrailer über die Website gucken können</t>
+  </si>
+  <si>
+    <t>Programm</t>
+  </si>
+  <si>
+    <t>Platzauswahl</t>
+  </si>
+  <si>
+    <t>Tarif</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Zahlungsmethoden</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Historie</t>
+  </si>
+  <si>
+    <t>Benutzeraccount</t>
+  </si>
+  <si>
+    <t>Gutscheine</t>
+  </si>
+  <si>
+    <t>Bewertungen</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>A1.1.1</t>
+  </si>
+  <si>
+    <t>A1.1.2</t>
+  </si>
+  <si>
+    <t>A1.1.3</t>
+  </si>
+  <si>
+    <t>A1.1.4</t>
+  </si>
+  <si>
+    <t>A1.1.5</t>
+  </si>
+  <si>
+    <t>A1.2.1</t>
+  </si>
+  <si>
+    <t>A1.2.2</t>
+  </si>
+  <si>
+    <t>A1.3.1</t>
+  </si>
+  <si>
+    <t>A1.3.2</t>
+  </si>
+  <si>
+    <t>A1.2.3</t>
+  </si>
+  <si>
+    <t>A1.3.3</t>
+  </si>
+  <si>
+    <t>A1.3.4</t>
+  </si>
+  <si>
+    <t>Vorstellungsdaten</t>
+  </si>
+  <si>
+    <t>Filmdaten</t>
+  </si>
+  <si>
+    <t>Bestellungsdaten</t>
+  </si>
+  <si>
+    <t>Kundendaten</t>
+  </si>
+  <si>
+    <t>ca. 5000 Kundenkonten</t>
+  </si>
+  <si>
+    <t>durchschnittlich 10 Bestellungen pro Kunde (Haltbarkeit 2 Jahre)</t>
+  </si>
+  <si>
+    <t>ca . 12000 Vorstellungen (Haltbarkeit 6 Monate)</t>
+  </si>
+  <si>
+    <t>ca. 100 Filminformationen ( Haltbarkeit 2 Jahre)</t>
+  </si>
+  <si>
+    <t>Einfachheit</t>
+  </si>
+  <si>
+    <t>95/100 neukunden sollen innerhalb von 10 Minuten ohne Rückfragen Tickets buchen können</t>
+  </si>
+  <si>
+    <t>Mitarbeiternutzung</t>
+  </si>
+  <si>
+    <t>Mitarbeiten sollen für das Abfertigen eines Kunden im Durchschnitt nicht mehr als 3 Minuten benötigen</t>
+  </si>
+  <si>
+    <t>Zuverlässigkeit</t>
+  </si>
+  <si>
+    <t>Zuverlässigkeit von &gt;80%</t>
+  </si>
+  <si>
+    <t>Doppelbuchungs-schutz</t>
+  </si>
+  <si>
+    <t>Doppelbuchungen sollen bei intaktem System zu 100% verhindert werden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -211,10 +344,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="9"/>
@@ -223,15 +352,26 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="23"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color indexed="23"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -266,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -417,113 +557,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="174" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="174" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -542,48 +706,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
         </patternFill>
       </fill>
     </dxf>
@@ -862,12 +984,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -877,7 +999,7 @@
     <col min="3" max="3" width="21.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="19" style="4" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="99" style="4" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="5" customWidth="1"/>
     <col min="8" max="8" width="32.140625" style="5" customWidth="1"/>
     <col min="9" max="10" width="7.5703125" style="5" customWidth="1"/>
@@ -889,506 +1011,749 @@
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="B1" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="16"/>
+    </row>
+    <row r="4" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="K4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="44"/>
+      <c r="K5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="33"/>
-    </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="23" t="s">
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H9" s="44"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="34"/>
-    </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="7" t="s">
+      <c r="D10" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="K4" s="35" t="s">
+      <c r="H10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="44"/>
+    </row>
+    <row r="12" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="44"/>
+    </row>
+    <row r="14" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="35"/>
-    </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="K5" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="35"/>
-    </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="7" t="s">
+      <c r="E15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="35"/>
-    </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="26"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="35"/>
-    </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="26"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="26"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="35"/>
-    </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="28"/>
-    </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="32"/>
     </row>
-    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="13"/>
-    </row>
-    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B55" s="13"/>
-    </row>
-    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B58" s="13"/>
+    <row r="34" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+    </row>
+    <row r="35" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+    </row>
+    <row r="39" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+    </row>
+    <row r="40" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+    </row>
+    <row r="41" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+    </row>
+    <row r="42" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+    </row>
+    <row r="43" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+    </row>
+    <row r="44" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+    </row>
+    <row r="46" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+    </row>
+    <row r="47" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+    </row>
+    <row r="48" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="34"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+    </row>
+    <row r="49" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="34"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+    </row>
+    <row r="50" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="34"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+    </row>
+    <row r="51" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="34"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+    </row>
+    <row r="52" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="34"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+    </row>
+    <row r="53" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="34"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B55" s="8"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B58" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G3:G33">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
@@ -1402,10 +1767,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Wählen Sie eine Kategorie aus" prompt="Sie können neue Kategorien in der Spalte M anlegen..." sqref="C3:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Wählen Sie eine Kategorie aus" prompt="Sie können neue Kategorien in der Spalte M anlegen..." sqref="C3:C33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$3:$K$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Geben Sie eine Quelle an" prompt="Neue Quellen definieren Sie in Spalte N. Dort können eue vorhandenen Quellen auch umorganisiert werden. " sqref="D3:D33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Geben Sie eine Quelle an" prompt="Neue Quellen definieren Sie in Spalte N. Dort können eue vorhandenen Quellen auch umorganisiert werden. " sqref="D3:D33" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$L$3:$L$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -1425,7 +1790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1436,131 +1801,131 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Anforderungsanalyse.xlsx
+++ b/Anforderungsanalyse.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jenny\Documents\GitHub\Systemarchitektur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr900243\Documents\Webentwicklung\Systemarchitektur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF76A41-FD8B-48CB-BA85-55110CA6E7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Details der Anforderungen" sheetId="2" r:id="rId1"/>
-    <sheet name="Quelle der datei" sheetId="4" r:id="rId2"/>
+    <sheet name="Abgrenzungskriterien" sheetId="5" r:id="rId2"/>
+    <sheet name="Quelle der datei" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="114210" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="115">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -278,15 +278,129 @@
   <si>
     <t>Doppelbuchungen sollen bei intaktem System zu 100% verhindert werden</t>
   </si>
+  <si>
+    <t>Werbung</t>
+  </si>
+  <si>
+    <t>Werbepartner sollen für Ihre Anzeigen gut Sichtbare Plätze auf allen Seiten erhalten</t>
+  </si>
+  <si>
+    <t>A 1.3.5</t>
+  </si>
+  <si>
+    <t>Informationen</t>
+  </si>
+  <si>
+    <t>Der Kunde soll auf einer Info-Seite alle Filminformationen wie Jahr, Schauspieler etc. anschauen können.</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Leistung</t>
+  </si>
+  <si>
+    <t>Aktualität der Anzeige</t>
+  </si>
+  <si>
+    <t>Die Anzeige der Sitzplätze des Benutzers soll im Sitzplatzauswahlbildschrim jede Sekunde aktualisiert werden</t>
+  </si>
+  <si>
+    <t>Testabdeckung</t>
+  </si>
+  <si>
+    <t>Der Code soll eine Testabdeckung von 85% haben</t>
+  </si>
+  <si>
+    <t>Erweiterbarkeit</t>
+  </si>
+  <si>
+    <t>Der Code soll auf Schnittstellen hin entwickelt werden und so erweiterbar sein.</t>
+  </si>
+  <si>
+    <t>Ladezeiten</t>
+  </si>
+  <si>
+    <t>Die Ladezeiten sollen 10 Sekunden nicht überschreiten.</t>
+  </si>
+  <si>
+    <t>Dokumente</t>
+  </si>
+  <si>
+    <t>Rechnungen</t>
+  </si>
+  <si>
+    <t>Rechnungen sollen per Email verschickt und auf der Website herunterladbar sein</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>Tickets sollen per Email versendet und auf der Website herunterladbar sein</t>
+  </si>
+  <si>
+    <t>Erreichbarkeit</t>
+  </si>
+  <si>
+    <t>Das System soll rund um die Uhr erreichbar sein</t>
+  </si>
+  <si>
+    <t>Mehrbenutzerfähigkeit</t>
+  </si>
+  <si>
+    <t>Das System muss Mehrbenutzerfähig sein.</t>
+  </si>
+  <si>
+    <t>Nicht funktional</t>
+  </si>
+  <si>
+    <t>Browserbasierung</t>
+  </si>
+  <si>
+    <t>Die Anwendung soll Webbrowserbasiert sein.</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Es soll eine Android-App entwickelt werden</t>
+  </si>
+  <si>
+    <t>Keine Windows-App</t>
+  </si>
+  <si>
+    <t>Keine IOS-App</t>
+  </si>
+  <si>
+    <t>Keine sonstigen Umgebungen</t>
+  </si>
+  <si>
+    <t>keine Buchhaltung</t>
+  </si>
+  <si>
+    <t>Keine eigene Archivierung von Filmdaten</t>
+  </si>
+  <si>
+    <t>Kein eigener Videoplayer - Einbindung über IMDb/Youtube</t>
+  </si>
+  <si>
+    <t>A1.4.1</t>
+  </si>
+  <si>
+    <t>A1.4.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -308,69 +422,66 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color indexed="48"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
-      <sz val="9"/>
+      <sz val="16"/>
       <color indexed="23"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color indexed="23"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color indexed="23"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -395,32 +506,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -438,256 +540,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -984,778 +969,984 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19" style="4" customWidth="1"/>
-    <col min="6" max="6" width="99" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" style="5" customWidth="1"/>
-    <col min="9" max="10" width="7.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="12.7109375" style="5"/>
+    <col min="1" max="1" width="1.33203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="39.109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="127.33203125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="110.33203125" style="13" customWidth="1"/>
+    <col min="9" max="10" width="7.5546875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="12.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-    </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="37" t="s">
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="37" t="s">
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="K4" s="23" t="s">
+      <c r="H4" s="27"/>
+      <c r="K4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="37" t="s">
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="K5" s="23" t="s">
+      <c r="H5" s="27"/>
+      <c r="K5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="37" t="s">
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23" t="s">
+      <c r="H6" s="27"/>
+      <c r="L6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="37" t="s">
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="H7" s="27"/>
+      <c r="L7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="37" t="s">
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23" t="s">
+      <c r="H8" s="27"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="37" t="s">
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23" t="s">
+      <c r="H9" s="27"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="37" t="s">
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="44"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="37" t="s">
+      <c r="H10" s="27"/>
+      <c r="L10" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="44"/>
-    </row>
-    <row r="12" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="37" t="s">
+      <c r="H11" s="27"/>
+      <c r="L11" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="44"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="37" t="s">
+      <c r="H12" s="27"/>
+      <c r="L12" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="44"/>
-    </row>
-    <row r="14" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="37" t="s">
+      <c r="H13" s="27"/>
+      <c r="L13" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="44"/>
-    </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18" t="s">
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:13" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:13" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E20" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F20" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="G20" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E21" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F21" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18" t="s">
+      <c r="G21" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D22" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E22" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F22" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18" t="s">
+      <c r="G22" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D23" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E23" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F23" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18" t="s">
+      <c r="G23" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D24" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E24" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F24" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18" t="s">
+      <c r="G24" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="1:8" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E25" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F25" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18" t="s">
+      <c r="G25" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" s="18" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E29" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F30" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18" t="s">
+      <c r="G30" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D31" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E31" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F31" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G31" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18" t="s">
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18" t="s">
+      <c r="D32" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="26"/>
-    </row>
-    <row r="33" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-    </row>
-    <row r="35" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-    </row>
-    <row r="36" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-    </row>
-    <row r="39" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-    </row>
-    <row r="40" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-    </row>
-    <row r="41" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-    </row>
-    <row r="42" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-    </row>
-    <row r="43" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-    </row>
-    <row r="44" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-    </row>
-    <row r="45" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-    </row>
-    <row r="46" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-    </row>
-    <row r="47" spans="1:8" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-    </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="34"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-    </row>
-    <row r="49" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-    </row>
-    <row r="50" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-    </row>
-    <row r="51" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="34"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-    </row>
-    <row r="52" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-    </row>
-    <row r="53" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="34"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-    </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B55" s="8"/>
-    </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B58" s="8"/>
-    </row>
+      <c r="D33" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="28"/>
+    </row>
+    <row r="37" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+    </row>
+    <row r="38" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="28"/>
+    </row>
+    <row r="40" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+    </row>
+    <row r="41" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+    </row>
+    <row r="42" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+    </row>
+    <row r="44" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+    </row>
+    <row r="45" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+    </row>
+    <row r="46" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+    </row>
+    <row r="47" spans="1:8" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+    </row>
+    <row r="48" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="27"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+    </row>
+    <row r="49" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G3:G33">
+  <conditionalFormatting sqref="G3:G100">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Hoch"</formula>
     </cfRule>
@@ -1767,11 +1958,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Wählen Sie eine Kategorie aus" prompt="Sie können neue Kategorien in der Spalte M anlegen..." sqref="C3:C33" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Geben Sie eine Quelle an" prompt="Neue Quellen definieren Sie in Spalte N. Dort können eue vorhandenen Quellen auch umorganisiert werden. " sqref="D3:D14 D20:D25 D28:D33">
+      <formula1>$L$3:$L$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Wählen Sie eine Kategorie aus" prompt="Sie können neue Kategorien in der Spalte M anlegen..." sqref="C3:C14 C28:C33 C20:C25">
       <formula1>$K$3:$K$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="Geben Sie eine Quelle an" prompt="Neue Quellen definieren Sie in Spalte N. Dort können eue vorhandenen Quellen auch umorganisiert werden. " sqref="D3:D33" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$L$3:$L$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.33" right="0.41" top="0.55000000000000004" bottom="0.51" header="0.28000000000000003" footer="0.28000000000000003"/>
@@ -1790,142 +1981,190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
